--- a/pdf/python/Author-python.xlsx
+++ b/pdf/python/Author-python.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprocject\Google_Search\pdf\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6E32A6-531F-4A70-B12D-5A1FF4C966E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oliphant, Travis E" sheetId="1" r:id="rId1"/>
-    <sheet name="Lutz, Mark" sheetId="2" r:id="rId2"/>
+    <sheet name="总表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>author</t>
   </si>
@@ -26,57 +31,69 @@
     <t>Oliphant, Travis E</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.xilesou.top/abstract/document/4160250/</t>
-  </si>
-  <si>
-    <t>https://www.nature.xilesou.top/articles/s41592-019-0686-2?es_p=11046330</t>
-  </si>
-  <si>
-    <t>https://www.scienceopen.com/document?vid=81ae2602-ca28-464a-b7d9-1514a433b55c</t>
-  </si>
-  <si>
-    <t>https://ecs.wgtn.ac.nz/foswiki/pub/Support/ManualPagesAndDocumentation/numpybook.pdf</t>
-  </si>
-  <si>
-    <t>http://mat.fsv.cvut.cz/aznm/Documentation.pdf</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.xilesou.top/abstract/document/4160246/</t>
+    <t>https://blog.csdn.net/qq_41663800/article/details/100928062</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/baidu_24585209/article/details/84971133</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_28901391/article/details/78123316</t>
+  </si>
+  <si>
+    <t>https://cn.bing.com/translator/?mkt=zh-CN&amp;text=author%20oliphant%20travis%20e%20intext%20python&amp;FORM=BDVSP2&amp;qpvt=author%3a%22Oliphant%2c+Travis+E%22+intext%3a%22python%22</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/33078620</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/youpeng/p/11732790.html</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/9781517300074/Guide-NumPy-2nd-Edition-Oliphant-151730007X/plp</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40829288/article/details/102866478</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/jinxiaonian11/article/details/83542696</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/whaoxysh/article/details/22295317</t>
+  </si>
+  <si>
+    <t>https://www.thefreedictionary.com/Intext</t>
   </si>
   <si>
     <t>Lutz, Mark</t>
   </si>
   <si>
-    <t>https://x.glgoo.top/books?hl=zh-CN&amp;lr=&amp;id=c8pV-TzyfBUC&amp;oi=fnd&amp;pg=PR11&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=n4bD7TSXWU&amp;sig=HcoA3ojXQ939ccS8GjbvkQrZ8M4</t>
-  </si>
-  <si>
-    <t>https://x.glgoo.top/books?hl=zh-CN&amp;lr=&amp;id=ePyeNz2Eoy8C&amp;oi=fnd&amp;pg=PP1&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=MbB8aO0hAi&amp;sig=U2bwk6kWcTP94RaoKumfKAqlNNI</t>
-  </si>
-  <si>
-    <t>https://x.glgoo.top/books?hl=zh-CN&amp;lr=&amp;id=qtdkAgAAQBAJ&amp;oi=fnd&amp;pg=PR5&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=b2SsFAgfIY&amp;sig=flZXMXJyJjMJjBBCrIMlTZmenq0</t>
-  </si>
-  <si>
-    <t>https://x.glgoo.top/books?hl=zh-CN&amp;lr=&amp;id=5fujAgAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=w0O7df4L_C&amp;sig=duXC-aVtsSzvg2bnV5YD3jDLvsw</t>
-  </si>
-  <si>
-    <t>http://weblibrary.apeiron-uni.eu:8080/WebDokumenti/6272-Team%20LiB.pdf</t>
-  </si>
-  <si>
-    <t>https://x.glgoo.top/books?hl=zh-CN&amp;lr=&amp;id=gMBdvVktho4C&amp;oi=fnd&amp;pg=PR5&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=V90JNatLta&amp;sig=7Bg28u-s4BLwCnOhtm2UXRhjXxM</t>
-  </si>
-  <si>
-    <t>https://x.glgoo.top/books?hl=zh-CN&amp;lr=&amp;id=ZPnvHMmcrEoC&amp;oi=fnd&amp;pg=PR15&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=0nzq05dAgp&amp;sig=AlqJpuXgZns7WAXivoVI8GUj50c</t>
+    <t>https://blog.csdn.net/RememberMePlease/article/details/79702076</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/sxyyu1/article/details/81366526</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/kaid/p/7992240.html</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/zhangxinqi/p/9201594.html</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/328356/extracting-text-from-html-file-using-python</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/cnmilan/article/details/8727308</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,6 +103,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,16 +145,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +236,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +288,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,18 +481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="200.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -440,112 +510,135 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/pdf/python/Author-python.xlsx
+++ b/pdf/python/Author-python.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprocject\Google_Search\pdf\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6E32A6-531F-4A70-B12D-5A1FF4C966E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>author</t>
   </si>
@@ -28,72 +22,75 @@
     <t>链接</t>
   </si>
   <si>
-    <t>Oliphant, Travis E</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_41663800/article/details/100928062</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/baidu_24585209/article/details/84971133</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_28901391/article/details/78123316</t>
-  </si>
-  <si>
-    <t>https://cn.bing.com/translator/?mkt=zh-CN&amp;text=author%20oliphant%20travis%20e%20intext%20python&amp;FORM=BDVSP2&amp;qpvt=author%3a%22Oliphant%2c+Travis+E%22+intext%3a%22python%22</t>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/33078620</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/youpeng/p/11732790.html</t>
-  </si>
-  <si>
-    <t>https://www.abebooks.com/9781517300074/Guide-NumPy-2nd-Edition-Oliphant-151730007X/plp</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_40829288/article/details/102866478</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/jinxiaonian11/article/details/83542696</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/whaoxysh/article/details/22295317</t>
-  </si>
-  <si>
-    <t>https://www.thefreedictionary.com/Intext</t>
-  </si>
-  <si>
     <t>Lutz, Mark</t>
   </si>
   <si>
-    <t>https://blog.csdn.net/RememberMePlease/article/details/79702076</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/sxyyu1/article/details/81366526</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/kaid/p/7992240.html</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/zhangxinqi/p/9201594.html</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/328356/extracting-text-from-html-file-using-python</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/cnmilan/article/details/8727308</t>
+    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%22Lutz%2C+Mark%22+intext%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://scholarspace.manoa.hawaii.edu/html/10125/1725/robinson.pdf</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.659.8557&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=gMBdvVktho4C&amp;oi=fnd&amp;pg=PR5&amp;dq=author%22Lutz,+Mark%22+intext%22python%22&amp;ots=V90JQbAEoh&amp;sig=IGSgzaeELlqhgY4qLo2nHpGEqt8</t>
+  </si>
+  <si>
+    <t>https://minerva-access.unimelb.edu.au/bitstream/handle/11343/31276/280690_85739.pdf?sequence=1</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=5fujAgAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=author%22Lutz,+Mark%22+intext%22python%22&amp;ots=w0O7ggbEVJ&amp;sig=wmqQGAgRhx53_7PVNQ3C4G_em7U</t>
+  </si>
+  <si>
+    <t>http://lup.lub.lu.se/student-papers/record/3566754</t>
+  </si>
+  <si>
+    <t>https://www.jbe-platform.com/content/journals/10.1075/dia.31.1.03zen</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/view/j/cog.2012.23.issue-4/cog-2012-0023/cog-2012-0023.xml</t>
+  </si>
+  <si>
+    <t>https://vtechworks.lib.vt.edu/handle/10919/36972</t>
+  </si>
+  <si>
+    <t>https://www.ingentaconnect.com/content/jbp/dia/2014/00000031/00000001/art00003</t>
+  </si>
+  <si>
+    <t>Oliphant, Travis</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%22Oliphant%2C+Travis%22+intext%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://ecs.wgtn.ac.nz/foswiki/pub/Support/ManualPagesAndDocumentation/numpybook.pdf</t>
+  </si>
+  <si>
+    <t>https://sciencedirect.xilesou.top/science/article/pii/S1877050919301620</t>
+  </si>
+  <si>
+    <t>http://theses.ubn.ru.nl/handle/123456789/5211</t>
+  </si>
+  <si>
+    <t>https://arxiv.xilesou.top/abs/1611.05360</t>
+  </si>
+  <si>
+    <t>https://is.muni.cz/th/fuaps/main.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mitpressjournals.org/doi/abs/10.1162/COLI_a_00275</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,13 +100,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,24 +135,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,27 +218,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,24 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,20 +427,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="200.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,135 +454,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/pdf/python/Author-python.xlsx
+++ b/pdf/python/Author-python.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>author</t>
   </si>
@@ -22,64 +22,25 @@
     <t>链接</t>
   </si>
   <si>
-    <t>Lutz, Mark</t>
-  </si>
-  <si>
-    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%22Lutz%2C+Mark%22+intext%22python%22&amp;btnG=</t>
-  </si>
-  <si>
-    <t>https://scholarspace.manoa.hawaii.edu/html/10125/1725/robinson.pdf</t>
-  </si>
-  <si>
-    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.659.8557&amp;rep=rep1&amp;type=pdf</t>
-  </si>
-  <si>
-    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=gMBdvVktho4C&amp;oi=fnd&amp;pg=PR5&amp;dq=author%22Lutz,+Mark%22+intext%22python%22&amp;ots=V90JQbAEoh&amp;sig=IGSgzaeELlqhgY4qLo2nHpGEqt8</t>
-  </si>
-  <si>
-    <t>https://minerva-access.unimelb.edu.au/bitstream/handle/11343/31276/280690_85739.pdf?sequence=1</t>
-  </si>
-  <si>
-    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=5fujAgAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=author%22Lutz,+Mark%22+intext%22python%22&amp;ots=w0O7ggbEVJ&amp;sig=wmqQGAgRhx53_7PVNQ3C4G_em7U</t>
-  </si>
-  <si>
-    <t>http://lup.lub.lu.se/student-papers/record/3566754</t>
-  </si>
-  <si>
-    <t>https://www.jbe-platform.com/content/journals/10.1075/dia.31.1.03zen</t>
-  </si>
-  <si>
-    <t>https://www.degruyter.com/view/j/cog.2012.23.issue-4/cog-2012-0023/cog-2012-0023.xml</t>
-  </si>
-  <si>
-    <t>https://vtechworks.lib.vt.edu/handle/10919/36972</t>
-  </si>
-  <si>
-    <t>https://www.ingentaconnect.com/content/jbp/dia/2014/00000031/00000001/art00003</t>
-  </si>
-  <si>
     <t>Oliphant, Travis</t>
   </si>
   <si>
-    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%22Oliphant%2C+Travis%22+intext%22python%22&amp;btnG=</t>
-  </si>
-  <si>
-    <t>https://ecs.wgtn.ac.nz/foswiki/pub/Support/ManualPagesAndDocumentation/numpybook.pdf</t>
-  </si>
-  <si>
-    <t>https://sciencedirect.xilesou.top/science/article/pii/S1877050919301620</t>
-  </si>
-  <si>
-    <t>http://theses.ubn.ru.nl/handle/123456789/5211</t>
-  </si>
-  <si>
-    <t>https://arxiv.xilesou.top/abs/1611.05360</t>
-  </si>
-  <si>
-    <t>https://is.muni.cz/th/fuaps/main.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mitpressjournals.org/doi/abs/10.1162/COLI_a_00275</t>
+    <t>https://scholar.google.com.hk/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%3A%22Oliphant%2C+Travis%22+intext%3A%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/4160250/</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.476.2204&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>https://www.scienceopen.com/document?vid=ab12905a-8a5b-43d8-a2bb-defc771410b9</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41592-019-0686-2?es_p=11046330</t>
+  </si>
+  <si>
+    <t>https://www.scienceopen.com/document?vid=81ae2602-ca28-464a-b7d9-1514a433b55c</t>
   </si>
 </sst>
 </file>
@@ -428,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,69 +440,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -550,18 +448,6 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
